--- a/data/parametros.xlsx
+++ b/data/parametros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/Enex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AF449A7-DD01-4132-85CD-4B3EA0EFAF40}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70AD5A15-D27D-40F6-B13D-E5DE1EC487F2}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{B180F571-4E47-4DFE-AA80-D3395ECA269D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B180F571-4E47-4DFE-AA80-D3395ECA269D}"/>
   </bookViews>
   <sheets>
     <sheet name="parametros" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -142,6 +142,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
@@ -477,19 +478,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11496EF5-786C-451F-99E7-9443F0513593}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.796875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -497,7 +499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -505,7 +507,7 @@
         <v>39500</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -514,7 +516,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -522,7 +524,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -530,15 +532,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -546,7 +548,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -554,7 +556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -562,7 +564,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -570,7 +572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -578,13 +580,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1">
         <v>80</v>
       </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="18" spans="3:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/parametros.xlsx
+++ b/data/parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70AD5A15-D27D-40F6-B13D-E5DE1EC487F2}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62A360AC-8CFD-40EE-8AE9-D3E52F294210}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B180F571-4E47-4DFE-AA80-D3395ECA269D}"/>
+    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{B180F571-4E47-4DFE-AA80-D3395ECA269D}"/>
   </bookViews>
   <sheets>
     <sheet name="parametros" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -143,6 +143,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
@@ -481,7 +482,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.796875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -563,6 +564,8 @@
       <c r="B9" s="1">
         <v>0.75</v>
       </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">

--- a/data/parametros.xlsx
+++ b/data/parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62A360AC-8CFD-40EE-8AE9-D3E52F294210}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A72702C6-8495-4127-AB15-26E0536580CF}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{B180F571-4E47-4DFE-AA80-D3395ECA269D}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.796875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5"/>

--- a/data/parametros.xlsx
+++ b/data/parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A72702C6-8495-4127-AB15-26E0536580CF}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{832C5ED4-5A06-48D3-A2A9-B8E2A6BCDA34}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{B180F571-4E47-4DFE-AA80-D3395ECA269D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B180F571-4E47-4DFE-AA80-D3395ECA269D}"/>
   </bookViews>
   <sheets>
     <sheet name="parametros" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5"/>

--- a/data/parametros.xlsx
+++ b/data/parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{832C5ED4-5A06-48D3-A2A9-B8E2A6BCDA34}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5AB05F5-00F1-4615-B455-2A210AC896CB}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B180F571-4E47-4DFE-AA80-D3395ECA269D}"/>
   </bookViews>
@@ -130,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -144,6 +144,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
@@ -482,13 +485,13 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.796875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.73046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -561,8 +564,8 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
+      <c r="B9" s="7">
+        <v>0.75</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5"/>

--- a/data/parametros.xlsx
+++ b/data/parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5AB05F5-00F1-4615-B455-2A210AC896CB}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2840349C-92F2-4ABC-B0AB-C8537D17D195}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B180F571-4E47-4DFE-AA80-D3395ECA269D}"/>
+    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{B180F571-4E47-4DFE-AA80-D3395ECA269D}"/>
   </bookViews>
   <sheets>
     <sheet name="parametros" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.796875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">

--- a/data/parametros.xlsx
+++ b/data/parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2840349C-92F2-4ABC-B0AB-C8537D17D195}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64AD535B-86A2-4F9E-A4D6-5834FCAB21A3}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{B180F571-4E47-4DFE-AA80-D3395ECA269D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B180F571-4E47-4DFE-AA80-D3395ECA269D}"/>
   </bookViews>
   <sheets>
     <sheet name="parametros" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.796875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">

--- a/data/parametros.xlsx
+++ b/data/parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64AD535B-86A2-4F9E-A4D6-5834FCAB21A3}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76D3590E-B874-4040-80A0-7E39AAB2E96E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B180F571-4E47-4DFE-AA80-D3395ECA269D}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.796875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">

--- a/data/parametros.xlsx
+++ b/data/parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76D3590E-B874-4040-80A0-7E39AAB2E96E}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5953CDA2-DB40-499E-82FF-8E8F3B96F863}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B180F571-4E47-4DFE-AA80-D3395ECA269D}"/>
   </bookViews>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">

--- a/data/parametros.xlsx
+++ b/data/parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5953CDA2-DB40-499E-82FF-8E8F3B96F863}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95A166A8-D6C0-439C-A9B4-7DEAC8AE643B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B180F571-4E47-4DFE-AA80-D3395ECA269D}"/>
   </bookViews>
@@ -130,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -143,7 +143,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -485,7 +484,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.796875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -541,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>0.12</v>
+        <v>0.44700000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -564,10 +563,10 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="E9" s="6"/>
+      <c r="B9" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">

--- a/data/parametros.xlsx
+++ b/data/parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95A166A8-D6C0-439C-A9B4-7DEAC8AE643B}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{B6580B79-9743-47E9-99C8-999C9D1B505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0D69E21-03AE-41C6-B307-2BCDAC502EDD}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B180F571-4E47-4DFE-AA80-D3395ECA269D}"/>
   </bookViews>
@@ -484,14 +484,13 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.796875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
